--- a/uploads/moneglisedata.xlsx
+++ b/uploads/moneglisedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\git\moneglise\fpma\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905F482-6E36-40FF-A43D-3FD2C20F53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034E4E33-0429-4C47-98E0-DC89844024DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -863,9 +863,6 @@
     <t>ASA SY FAMPAHEREZANA</t>
   </si>
   <si>
-    <t>Mampahatsiahy antsika mpianakavin'ny finoana. Fa efa nanomboka ny Asa sy Fampaherezana ato amin'ny fiangonana. Ka dia isaky ny Alahady faharoa ny volana izany. Koa isika izay maniry izany dia raisina</t>
-  </si>
-  <si>
     <t>2024-04-18T21:59:39.000Z</t>
   </si>
   <si>
@@ -1143,6 +1140,9 @@
   </si>
   <si>
     <t>https://media.istockphoto.com/id/1337144146/fr/vectoriel/vecteur-dic%C3%B4ne-de-profil-davatar-par-d%C3%A9faut.jpg?s=1024x1024&amp;w=is&amp;k=20&amp;c=XM2Gji0NqwLiwD-T2ZUXBS409qldkRUSth7kj8aObn8=</t>
+  </si>
+  <si>
+    <t>Mampahatsiahy antsika mpianakavin'ny finoana. Fa efa nanomboka ny Asa sy Fampaherezana ato amin'ny fiangonana. Ka dia isaky ny Alahady faha efatran'ny volana izany. Koa isika izay maniry izany dia raisina</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2100,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -2121,7 +2121,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -2182,7 +2182,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>56</v>
@@ -3376,7 +3376,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>76</v>
@@ -3434,7 +3434,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>76</v>
@@ -3492,7 +3492,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>76</v>
@@ -3550,7 +3550,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>76</v>
@@ -3608,7 +3608,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
@@ -3666,7 +3666,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>76</v>
@@ -3724,7 +3724,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>76</v>
@@ -3782,7 +3782,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>76</v>
@@ -3840,7 +3840,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>76</v>
@@ -3898,7 +3898,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>76</v>
@@ -3956,7 +3956,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>76</v>
@@ -4014,7 +4014,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>76</v>
@@ -4072,7 +4072,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>76</v>
@@ -4130,7 +4130,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>76</v>
@@ -4188,7 +4188,7 @@
         <v>74</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>76</v>
@@ -4246,7 +4246,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>76</v>
@@ -4304,7 +4304,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>76</v>
@@ -4362,7 +4362,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>76</v>
@@ -4420,7 +4420,7 @@
         <v>74</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>76</v>
@@ -4478,7 +4478,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>76</v>
@@ -4536,7 +4536,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>76</v>
@@ -4594,7 +4594,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>76</v>
@@ -4652,7 +4652,7 @@
         <v>74</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>76</v>
@@ -4710,7 +4710,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>76</v>
@@ -4768,7 +4768,7 @@
         <v>74</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>76</v>
@@ -4826,7 +4826,7 @@
         <v>74</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>76</v>
@@ -4884,7 +4884,7 @@
         <v>74</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>76</v>
@@ -4942,7 +4942,7 @@
         <v>74</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>76</v>
@@ -5000,7 +5000,7 @@
         <v>74</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>76</v>
@@ -5058,7 +5058,7 @@
         <v>74</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>76</v>
@@ -5116,7 +5116,7 @@
         <v>74</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>76</v>
@@ -5174,7 +5174,7 @@
         <v>74</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>76</v>
@@ -5232,7 +5232,7 @@
         <v>74</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>76</v>
@@ -5290,7 +5290,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>76</v>
@@ -5348,7 +5348,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>76</v>
@@ -5406,7 +5406,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>76</v>
@@ -5464,7 +5464,7 @@
         <v>74</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>76</v>
@@ -5522,7 +5522,7 @@
         <v>74</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>76</v>
@@ -5580,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>76</v>
@@ -5638,7 +5638,7 @@
         <v>74</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>76</v>
@@ -5696,7 +5696,7 @@
         <v>74</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>76</v>
@@ -6641,7 +6641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6667,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -6689,10 +6689,10 @@
         <v>177</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6700,18 +6700,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7734,7 +7734,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
@@ -7751,218 +7751,218 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="D7" s="7">
         <v>100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="D8" s="7">
         <v>101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="7">
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8959,7 +8959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8976,10 +8976,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -8988,566 +8988,566 @@
         <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="C8" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="C11" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="C16" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="C29" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
